--- a/Výkazy/Lukáš Toman.xlsx
+++ b/Výkazy/Lukáš Toman.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukáš\Dropbox\Restaurace+\výkazy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukáš\Documents\GitHub\RestauracePlus\Výkazy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>1.iterace - opravy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vytvoření scénářu použití </t>
   </si>
 </sst>
 </file>
@@ -422,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +457,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>7.75</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -513,6 +516,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
         <v>2</v>
       </c>
     </row>

--- a/Výkazy/Lukáš Toman.xlsx
+++ b/Výkazy/Lukáš Toman.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vytvoření scénářu použití </t>
+  </si>
+  <si>
+    <t>Implementace správy dodavatelů</t>
   </si>
 </sst>
 </file>
@@ -425,11 +428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +460,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1002)</f>
-        <v>11.75</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,6 +528,14 @@
       </c>
       <c r="B13" s="8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Lukáš Toman.xlsx
+++ b/Výkazy/Lukáš Toman.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Implementace správy dodavatelů</t>
+  </si>
+  <si>
+    <t>Úpravy implementací</t>
+  </si>
+  <si>
+    <t>Dodělání 4.iterace</t>
+  </si>
+  <si>
+    <t>Testování, napsání zprávy</t>
   </si>
 </sst>
 </file>
@@ -428,11 +437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,8 +468,8 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <f>SUM(B7:B1002)</f>
-        <v>15.75</v>
+        <f>SUM(B7:B1001)</f>
+        <v>20.25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,6 +545,30 @@
       </c>
       <c r="B14" s="8">
         <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Lukáš Toman.xlsx
+++ b/Výkazy/Lukáš Toman.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Výkaz:</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Testování, napsání zprávy</t>
+  </si>
+  <si>
+    <t>Oprava 4.iterace</t>
   </si>
 </sst>
 </file>
@@ -437,11 +440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +472,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1001)</f>
-        <v>20.25</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,6 +572,14 @@
       </c>
       <c r="B17" s="8">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Výkazy/Lukáš Toman.xlsx
+++ b/Výkazy/Lukáš Toman.xlsx
@@ -444,7 +444,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>SUM(B7:B1001)</f>
-        <v>23.25</v>
+        <v>24.25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
